--- a/outputs/ant_loads_110N_ATT.xlsx
+++ b/outputs/ant_loads_110N_ATT.xlsx
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -377,7 +377,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
+        <v>1.2809999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -385,7 +385,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>3.5</v>
+        <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -393,7 +393,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4.9810999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -401,19 +401,28 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>6.4169999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>5.1779999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>90</v>
       </c>
-      <c r="B6">
-        <v>5.5</v>
+      <c r="B7">
+        <v>5.7779999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
